--- a/TOEFL/听力/TPO经典64篇难文章分类.xlsx
+++ b/TOEFL/听力/TPO经典64篇难文章分类.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大二\TF英语\听力\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weixinpeng/Desktop/NOTE_github/TOEFL/听力/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4478627-4BD2-4B48-AD48-6248D1492E86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02D0E6-6D87-3C40-8997-B7DAF2F5D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="讲座" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
   <si>
     <r>
       <rPr>
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>篇目</t>
@@ -46,6 +47,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>篇目</t>
@@ -58,6 +60,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>难对话（</t>
@@ -67,6 +70,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
       <t>service encounter</t>
     </r>
@@ -75,6 +79,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -87,6 +92,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>难对话（学术讨论）</t>
@@ -99,6 +105,7 @@
         <sz val="20"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>难对话（学科话题）</t>
@@ -227,10 +234,6 @@
   </si>
   <si>
     <t>T54C1(Theater)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T32L2(Relationships among species)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -339,6 +342,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>生命科学</t>
@@ -351,6 +355,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>艺术</t>
@@ -363,6 +368,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>自然科学</t>
@@ -375,6 +381,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>社会科学</t>
@@ -434,226 +441,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T7L1(Well-made Play)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12L3(Opera)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T16L4(Stained Glass Art)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T17L1(Prehistoric Art Dating)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18L2(Copies of Greek Sculptures)OK</t>
-  </si>
-  <si>
-    <t>T1L2(Uranium-Lead Dating)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T19L4(Cecilia Beaux)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T21L4(Alice Neel)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T22L4(Musicians &amp; Film Industry)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T23L4(Screen Dance)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T24L2(Modern Dance)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T27L2(Cremonese Violins)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T27L4(Primary Colors)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T29L2(Reverberation)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T32L4(Harriet Morrison Irwin)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T33L4(the Renaissance gardens)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T4L1(Displacement Activity)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6L1(Boom and Bust)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T9L4(Features of Human Language)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10L4(Childhood Amnesia)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T14L4(Passage Graves)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T15L1(Distraction)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T18L3(Spices)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T19L1(Family Tree Model)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T28L4(Gonur-depe)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30L1(Metacognition)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T26L1(Green Marketing)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T33L1(the Great Pyramid)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T40L4 (Infrastructure Privatization)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T27L1(Coral Reefs)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T5L2(Moon Landing)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6L4(Sahara)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T7L4 (Glacial Movement)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T14L3(Seafarers and Stars)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T16L1(Lechuguilla Cave)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T17L2(Milankovitch Hypothesis)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T19L2(Difficulties in Astronomy)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T20L2(Interglacial Periods)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T21L1(Geocentric Theory)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T25L3(Egyptian Hieroglyphs)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T22L2(Faint Young Sun Paradox)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T29L4(Carbon Nanotubes)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30L3(Jarosite)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31L2(Plate Drift)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T32L3(the Copper Basin)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO36L1(Helium-3)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TPO35L4 (the Permian Extinction)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T26L4(Archimedes Palimpsest)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T6L2(Nightcap Oak)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T40C1(Business)OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T18L4(North American Wood Frog)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T39C1(Theater)OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T19L3(Spartina)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T34C2(Creative Writing)OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T21L3(Snake Evolution)OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T42C1(Art History)OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4L1(Displacement Activity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6L2(Nightcap Oak)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19L3(Spartina)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T21L3(Snake Evolution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T27L1(Coral Reefs)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7L1(Well-made Play)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12L3(Opera)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T16L4(Stained Glass Art)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17L1(Prehistoric Art Dating)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18L2(Copies of Greek Sculptures)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19L4(Cecilia Beaux)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T21L4(Alice Neel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T22L4(Musicians &amp; Film Industry)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T23L4(Screen Dance)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T26L4(Archimedes Palimpsest)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T27L2(Cremonese Violins)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T27L4(Primary Colors)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T29L2(Reverberation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T32L4(Harriet Morrison Irwin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T33L4(the Renaissance gardens)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1L2(Uranium-Lead Dating)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T5L2(Moon Landing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T6L4(Sahara)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T7L4 (Glacial Movement)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14L3(Seafarers and Stars)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17L2(Milankovitch Hypothesis)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19L2(Difficulties in Astronomy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T20L2(Interglacial Periods)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T21L1(Geocentric Theory)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T29L4(Carbon Nanotubes)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30L3(Jarosite)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31L2(Plate Drift)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T32L3(the Copper Basin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO36L1(Helium-3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPO35L4 (the Permian Extinction)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T9L4(Features of Human Language)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10L4(Childhood Amnesia)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14L4(Passage Graves)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T18L3(Spices)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T19L1(Family Tree Model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T26L1(Green Marketing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T28L4(Gonur-depe)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30L1(Metacognition)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T40L4 (Infrastructure Privatization)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished T32L2(Relationships among species)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -681,6 +661,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -706,22 +687,26 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="Book Antiqua"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -729,16 +714,19 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -926,15 +914,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,9 +942,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1330,343 +1318,345 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView zoomScale="63" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="63" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="19"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
     <col min="7" max="7" width="42.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="22">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="30"/>
-    </row>
-    <row r="2" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="22">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="23"/>
+      <c r="B2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="24"/>
       <c r="D2" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="23"/>
+        <v>87</v>
+      </c>
+      <c r="E2" s="24"/>
       <c r="F2" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    </row>
+    <row r="3" spans="1:8" ht="22">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" s="23"/>
+      <c r="B3" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="24"/>
       <c r="D3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" s="23"/>
+        <v>88</v>
+      </c>
+      <c r="E3" s="24"/>
       <c r="F3" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="22">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="24"/>
+      <c r="B4" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="26"/>
       <c r="F4" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="23"/>
+      <c r="B5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="24"/>
       <c r="D5" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="23"/>
+        <v>89</v>
+      </c>
+      <c r="E5" s="24"/>
       <c r="F5" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>90</v>
+      </c>
+      <c r="E6" s="24"/>
       <c r="F6" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="23"/>
+      <c r="B7" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="24"/>
       <c r="D7" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="23"/>
+        <v>91</v>
+      </c>
+      <c r="E7" s="24"/>
       <c r="F7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="22">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="23"/>
+      <c r="B8" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24"/>
       <c r="D8" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="E8" s="24"/>
       <c r="F8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:8" ht="22">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="24"/>
       <c r="D9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="23"/>
+        <v>93</v>
+      </c>
+      <c r="E9" s="24"/>
       <c r="F9" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="22">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="24"/>
+      <c r="B10" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="26"/>
       <c r="D10" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="E10" s="24"/>
       <c r="F10" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="22">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="23"/>
+      <c r="B11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="24"/>
       <c r="D11" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="23"/>
+        <v>95</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="22">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E12" s="24"/>
+      <c r="B12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="26"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:8" ht="22">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" s="23"/>
+      <c r="B13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:8" ht="22">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="23"/>
+        <v>97</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:8" ht="22">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:8" ht="22" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="22">
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="23"/>
+      <c r="B16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="24"/>
       <c r="D16" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+        <v>99</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:9" ht="22">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="23"/>
+      <c r="B17" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="24"/>
       <c r="D17" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+        <v>100</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:9" ht="22">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="E18" s="24"/>
       <c r="F18" s="18"/>
       <c r="G18" s="19"/>
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" ht="22">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="18"/>
       <c r="G19" s="19"/>
       <c r="H19" s="18"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" ht="22">
       <c r="A20" s="3"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -1675,446 +1665,446 @@
       <c r="F20" s="18"/>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" ht="22">
       <c r="A21" s="3"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" ht="22">
       <c r="A22" s="3"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" ht="22">
       <c r="A23" s="3"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="20"/>
       <c r="E23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" ht="22">
       <c r="A24" s="3"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" ht="22">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:9" ht="22">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>84</v>
+      <c r="B26" s="22" t="s">
+        <v>102</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="22" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="E26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" ht="22">
       <c r="A27" s="3">
         <v>2</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="22" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" ht="22">
       <c r="A28" s="3">
         <v>3</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="22" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" ht="22">
       <c r="A29" s="3">
         <v>4</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="22" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="E29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" ht="22">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="26"/>
+      <c r="B30" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="27"/>
       <c r="D30" s="22" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" ht="22">
       <c r="A31" s="3">
         <v>6</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="22" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" ht="22">
       <c r="A32" s="3">
         <v>7</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="22" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="E32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:5" ht="22">
       <c r="A33" s="3">
         <v>8</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+      <c r="D33" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="27"/>
+    </row>
+    <row r="34" spans="1:5" ht="22">
       <c r="A34" s="3">
         <v>9</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="22" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E34" s="20"/>
     </row>
-    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:5" ht="22">
       <c r="A35" s="3">
         <v>10</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="22" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="E35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:5" ht="22">
       <c r="A36" s="3">
         <v>11</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C36" s="20"/>
       <c r="D36" s="22" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:5" ht="22">
       <c r="A37" s="3">
         <v>12</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C37" s="20"/>
       <c r="D37" s="22" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:5" ht="22">
       <c r="A38" s="3">
         <v>13</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>120</v>
+      <c r="B38" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="22" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:5" ht="22">
       <c r="A39" s="3">
         <v>14</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C39" s="20"/>
       <c r="D39" s="20"/>
       <c r="E39" s="20"/>
     </row>
-    <row r="40" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:5" ht="22">
       <c r="A40" s="3">
         <v>15</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:5" ht="22">
       <c r="A41" s="3">
         <v>16</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:5" ht="22">
       <c r="A42" s="4">
         <v>17</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="18"/>
       <c r="E42" s="21"/>
     </row>
-    <row r="43" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:5" ht="22">
       <c r="A43" s="4">
         <v>18</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="18"/>
       <c r="E43" s="21"/>
     </row>
-    <row r="44" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:5" ht="22">
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
     </row>
-    <row r="45" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:5" ht="22">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
     </row>
-    <row r="46" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:5" ht="22">
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
       <c r="D46" s="18"/>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" ht="22">
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
     </row>
-    <row r="48" spans="1:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:5" ht="22">
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
       <c r="D48" s="18"/>
       <c r="E48" s="19"/>
     </row>
-    <row r="49" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:5" ht="22">
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
       <c r="D49" s="18"/>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:5" ht="22">
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
     </row>
-    <row r="51" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="51" spans="2:5" ht="22">
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
     </row>
-    <row r="52" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="52" spans="2:5" ht="22">
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
       <c r="D52" s="18"/>
       <c r="E52" s="19"/>
     </row>
-    <row r="53" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="53" spans="2:5" ht="22">
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
       <c r="D53" s="18"/>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="54" spans="2:5" ht="22">
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
       <c r="D54" s="18"/>
       <c r="E54" s="19"/>
     </row>
-    <row r="55" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="55" spans="2:5" ht="22">
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
       <c r="D55" s="18"/>
       <c r="E55" s="19"/>
     </row>
-    <row r="56" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="56" spans="2:5" ht="22">
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="D56" s="18"/>
       <c r="E56" s="19"/>
     </row>
-    <row r="57" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="57" spans="2:5" ht="22">
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
       <c r="D57" s="18"/>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="58" spans="2:5" ht="22">
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="18"/>
       <c r="E58" s="19"/>
     </row>
-    <row r="59" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="59" spans="2:5" ht="22">
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="18"/>
       <c r="E59" s="19"/>
     </row>
-    <row r="60" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="60" spans="2:5" ht="22">
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="18"/>
       <c r="E60" s="19"/>
     </row>
-    <row r="61" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="61" spans="2:5" ht="22">
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" ht="22" x14ac:dyDescent="0.5">
+    <row r="62" spans="2:5" ht="22">
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:5">
       <c r="B63" s="18"/>
       <c r="C63" s="19"/>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:5">
       <c r="B64" s="18"/>
       <c r="C64" s="19"/>
       <c r="D64" s="18"/>
       <c r="E64" s="19"/>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5">
       <c r="B65" s="18"/>
       <c r="C65" s="19"/>
       <c r="D65" s="18"/>
       <c r="E65" s="19"/>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5">
       <c r="B66" s="18"/>
       <c r="C66" s="19"/>
       <c r="D66" s="18"/>
       <c r="E66" s="19"/>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5">
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="18"/>
       <c r="E67" s="19"/>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5">
       <c r="B68" s="18"/>
       <c r="C68" s="19"/>
       <c r="D68" s="18"/>
       <c r="E68" s="19"/>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5">
       <c r="B69" s="18"/>
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5">
       <c r="B70" s="18"/>
       <c r="C70" s="19"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5">
       <c r="B71" s="18"/>
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5">
       <c r="B72" s="18"/>
       <c r="C72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5">
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
     </row>
@@ -2287,18 +2277,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
     <col min="3" max="3" width="59.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="26">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2299,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" ht="25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -2331,7 +2321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -2339,10 +2329,10 @@
         <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -2351,7 +2341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" ht="25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -2360,16 +2350,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" ht="25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25">
       <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
@@ -2378,7 +2368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" ht="25">
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
@@ -2387,234 +2377,234 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" ht="25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" ht="25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" ht="25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" ht="25">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" ht="25">
       <c r="A14" s="8"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" ht="25">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" ht="25">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="25">
       <c r="A17" s="8"/>
       <c r="B17" s="8"/>
       <c r="C17" s="17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="25">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" ht="25">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" ht="25">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" ht="25">
       <c r="A23" s="10"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" ht="25">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" ht="25">
       <c r="A25" s="10"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" ht="25">
       <c r="A26" s="10"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" ht="25">
       <c r="A27" s="10"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" ht="25">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" ht="25">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
     </row>
-    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" ht="25">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
     </row>
-    <row r="31" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" ht="24">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" ht="24">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" ht="24">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" ht="24">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" ht="24">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" ht="24">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" ht="24">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" ht="24">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" ht="24">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" ht="24">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" ht="24">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" ht="24">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" ht="24">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" ht="24">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" ht="24">
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" ht="24">
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" ht="24">
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" ht="24">
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="2:3" ht="23" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:3" ht="24">
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
     </row>
@@ -2638,30 +2628,30 @@
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/TOEFL/听力/TPO经典64篇难文章分类.xlsx
+++ b/TOEFL/听力/TPO经典64篇难文章分类.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weixinpeng/Desktop/NOTE_github/TOEFL/听力/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE02D0E6-6D87-3C40-8997-B7DAF2F5D8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2107C4-6B41-B94D-94F6-F11E256417CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="讲座" sheetId="1" r:id="rId1"/>
@@ -641,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -752,6 +752,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -850,7 +857,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,52 +906,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1319,7 +1329,7 @@
   <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="63" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:C17"/>
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="19"/>
@@ -1339,27 +1349,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="31" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="22">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="15" t="s">
         <v>49</v>
       </c>
@@ -1371,14 +1381,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="19"/>
+      <c r="D3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="15" t="s">
         <v>51</v>
       </c>
@@ -1390,14 +1400,14 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
@@ -1409,14 +1419,14 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="15" t="s">
         <v>42</v>
       </c>
@@ -1428,14 +1438,14 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="15" t="s">
         <v>43</v>
       </c>
@@ -1447,14 +1457,14 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
@@ -1466,14 +1476,14 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="15" t="s">
         <v>45</v>
       </c>
@@ -1486,14 +1496,14 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="23" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="15" t="s">
         <v>46</v>
       </c>
@@ -1506,14 +1516,14 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
@@ -1526,14 +1536,14 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="24"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1546,14 +1556,14 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="23"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
@@ -1561,14 +1571,14 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="23" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E13" s="24"/>
+      <c r="E13" s="19"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
@@ -1576,14 +1586,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="24"/>
+      <c r="E14" s="19"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
@@ -1591,14 +1601,14 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="23"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
@@ -1606,554 +1616,590 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="19"/>
+      <c r="D16" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:9" ht="22">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="23" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="22">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="23" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="22">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="22">
       <c r="A20" s="3"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="22">
       <c r="A21" s="3"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
     </row>
     <row r="22" spans="1:9" ht="22">
       <c r="A22" s="3"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
     </row>
     <row r="23" spans="1:9" ht="22">
       <c r="A23" s="3"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
     </row>
     <row r="24" spans="1:9" ht="22">
       <c r="A24" s="3"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
     </row>
     <row r="25" spans="1:9" ht="22">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="30"/>
+      <c r="E25" s="31"/>
     </row>
     <row r="26" spans="1:9" ht="22">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="1:9" ht="22">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="22" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="27"/>
     </row>
     <row r="28" spans="1:9" ht="22">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="22" t="s">
+      <c r="C28" s="27"/>
+      <c r="D28" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="20"/>
+      <c r="E28" s="27"/>
     </row>
     <row r="29" spans="1:9" ht="22">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="20"/>
+      <c r="E29" s="27"/>
     </row>
     <row r="30" spans="1:9" ht="22">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="27"/>
     </row>
     <row r="31" spans="1:9" ht="22">
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="22" t="s">
+      <c r="C31" s="27"/>
+      <c r="D31" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="27"/>
     </row>
     <row r="32" spans="1:9" ht="22">
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="27"/>
+      <c r="D32" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="27"/>
     </row>
     <row r="33" spans="1:5" ht="22">
       <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="27"/>
+      <c r="E33" s="29"/>
     </row>
     <row r="34" spans="1:5" ht="22">
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="27"/>
+      <c r="D34" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" ht="22">
       <c r="A35" s="3">
         <v>10</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="22" t="s">
+      <c r="C35" s="27"/>
+      <c r="D35" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="27"/>
     </row>
     <row r="36" spans="1:5" ht="22">
       <c r="A36" s="3">
         <v>11</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="22" t="s">
+      <c r="C36" s="27"/>
+      <c r="D36" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="27"/>
     </row>
     <row r="37" spans="1:5" ht="22">
       <c r="A37" s="3">
         <v>12</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="22" t="s">
+      <c r="C37" s="27"/>
+      <c r="D37" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="20"/>
+      <c r="E37" s="27"/>
     </row>
     <row r="38" spans="1:5" ht="22">
       <c r="A38" s="3">
         <v>13</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="20"/>
+      <c r="E38" s="27"/>
     </row>
     <row r="39" spans="1:5" ht="22">
       <c r="A39" s="3">
         <v>14</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:5" ht="22">
       <c r="A40" s="3">
         <v>15</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:5" ht="22">
       <c r="A41" s="3">
         <v>16</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
     </row>
     <row r="42" spans="1:5" ht="22">
       <c r="A42" s="4">
         <v>17</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="21"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:5" ht="22">
       <c r="A43" s="4">
         <v>18</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="21"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" ht="22">
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
     </row>
     <row r="45" spans="1:5" ht="22">
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="19"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
     </row>
     <row r="46" spans="1:5" ht="22">
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="19"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
     </row>
     <row r="47" spans="1:5" ht="22">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="25"/>
     </row>
     <row r="48" spans="1:5" ht="22">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="25"/>
     </row>
     <row r="49" spans="2:5" ht="22">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="19"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="25"/>
     </row>
     <row r="50" spans="2:5" ht="22">
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="19"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="25"/>
     </row>
     <row r="51" spans="2:5" ht="22">
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="19"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
     </row>
     <row r="52" spans="2:5" ht="22">
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="19"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="2:5" ht="22">
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="19"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
     </row>
     <row r="54" spans="2:5" ht="22">
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="19"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="25"/>
     </row>
     <row r="55" spans="2:5" ht="22">
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="19"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="25"/>
     </row>
     <row r="56" spans="2:5" ht="22">
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="19"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="25"/>
     </row>
     <row r="57" spans="2:5" ht="22">
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="19"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="27"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
     </row>
     <row r="58" spans="2:5" ht="22">
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="19"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="2:5" ht="22">
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="19"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
     </row>
     <row r="60" spans="2:5" ht="22">
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
     </row>
     <row r="61" spans="2:5" ht="22">
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="19"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="25"/>
     </row>
     <row r="62" spans="2:5" ht="22">
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="19"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="25"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="18"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="19"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="25"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="19"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="25"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="25"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="19"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="19"/>
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="19"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="18"/>
-      <c r="C70" s="19"/>
+      <c r="B70" s="24"/>
+      <c r="C70" s="25"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="18"/>
-      <c r="C71" s="19"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="25"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
+      <c r="B73" s="24"/>
+      <c r="C73" s="25"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
+      <c r="B75" s="24"/>
+      <c r="C75" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
@@ -2178,86 +2224,50 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="D36:E36"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2278,7 +2288,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>

--- a/TOEFL/听力/TPO经典64篇难文章分类.xlsx
+++ b/TOEFL/听力/TPO经典64篇难文章分类.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weixinpeng/Desktop/NOTE_github/TOEFL/听力/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2107C4-6B41-B94D-94F6-F11E256417CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787C4AC3-1620-EB43-AF5E-4B7127D75873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T23L4(Screen Dance)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T26L4(Archimedes Palimpsest)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,10 +529,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T33L4(the Renaissance gardens)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T1L2(Uranium-Lead Dating)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -634,6 +626,14 @@
   </si>
   <si>
     <t>finished T32L2(Relationships among species)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished T23L4(Screen Dance)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finished T33L4(the Renaissance gardens)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -906,55 +906,55 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" zoomScaleNormal="63" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:C13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="141" zoomScaleNormal="63" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="19"/>
@@ -1349,27 +1349,27 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="32"/>
+      <c r="D1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="22">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="15" t="s">
         <v>49</v>
       </c>
@@ -1381,14 +1381,14 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="15" t="s">
         <v>51</v>
       </c>
@@ -1400,14 +1400,14 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="15" t="s">
         <v>41</v>
       </c>
@@ -1419,14 +1419,14 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="19"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="15" t="s">
         <v>42</v>
       </c>
@@ -1438,14 +1438,14 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="19"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="15" t="s">
         <v>43</v>
       </c>
@@ -1457,14 +1457,14 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="15" t="s">
         <v>44</v>
       </c>
@@ -1476,14 +1476,14 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="15" t="s">
         <v>45</v>
       </c>
@@ -1496,14 +1496,14 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="15" t="s">
         <v>46</v>
       </c>
@@ -1516,14 +1516,14 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="15" t="s">
         <v>47</v>
       </c>
@@ -1536,14 +1536,14 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="24"/>
       <c r="F11" s="15" t="s">
         <v>48</v>
       </c>
@@ -1556,14 +1556,14 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="26"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
@@ -1571,14 +1571,14 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="24"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
     </row>
@@ -1586,14 +1586,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="19"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="24"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
@@ -1601,14 +1601,14 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="23"/>
+      <c r="B15" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="26"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
     </row>
@@ -1616,521 +1616,623 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="24"/>
     </row>
     <row r="17" spans="1:9" ht="22">
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="22">
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19"/>
     </row>
     <row r="19" spans="1:9" ht="22">
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" spans="1:9" ht="22">
       <c r="A20" s="3"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
     </row>
     <row r="21" spans="1:9" ht="22">
       <c r="A21" s="3"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="22">
       <c r="A22" s="3"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="22">
       <c r="A23" s="3"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="22">
       <c r="A24" s="3"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="22">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:9" ht="22">
       <c r="A26" s="3">
         <v>1</v>
       </c>
-      <c r="B26" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26" t="s">
+      <c r="B26" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="22">
       <c r="A27" s="3">
         <v>2</v>
       </c>
-      <c r="B27" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E27" s="27"/>
+      <c r="B27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="22">
       <c r="A28" s="3">
         <v>3</v>
       </c>
-      <c r="B28" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="27"/>
+      <c r="B28" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="22">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="27"/>
+      <c r="B29" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C29" s="20"/>
+      <c r="D29" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="22">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="27"/>
+      <c r="D30" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="27"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="22">
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" s="27"/>
+      <c r="B31" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="20"/>
+      <c r="D31" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="22">
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="E32" s="27"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="20"/>
     </row>
     <row r="33" spans="1:5" ht="22">
       <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="27"/>
+      <c r="B33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="20"/>
       <c r="D33" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E33" s="29"/>
+      <c r="E33" s="27"/>
     </row>
     <row r="34" spans="1:5" ht="22">
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E34" s="27"/>
+      <c r="B34" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="20"/>
     </row>
     <row r="35" spans="1:5" ht="22">
       <c r="A35" s="3">
         <v>10</v>
       </c>
-      <c r="B35" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" s="27"/>
+      <c r="B35" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="20"/>
     </row>
     <row r="36" spans="1:5" ht="22">
       <c r="A36" s="3">
         <v>11</v>
       </c>
-      <c r="B36" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E36" s="27"/>
+      <c r="B36" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="20"/>
+      <c r="D36" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="20"/>
     </row>
     <row r="37" spans="1:5" ht="22">
       <c r="A37" s="3">
         <v>12</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="27"/>
+      <c r="E37" s="20"/>
     </row>
     <row r="38" spans="1:5" ht="22">
       <c r="A38" s="3">
         <v>13</v>
       </c>
-      <c r="B38" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="27"/>
+      <c r="B38" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="20"/>
     </row>
     <row r="39" spans="1:5" ht="22">
       <c r="A39" s="3">
         <v>14</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="22">
       <c r="A40" s="3">
         <v>15</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
     </row>
     <row r="41" spans="1:5" ht="22">
       <c r="A41" s="3">
         <v>16</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
     </row>
     <row r="42" spans="1:5" ht="22">
       <c r="A42" s="4">
         <v>17</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="32"/>
+      <c r="B42" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="20"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" ht="22">
       <c r="A43" s="4">
         <v>18</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="27"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="32"/>
+      <c r="B43" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="20"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" ht="22">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="22">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="19"/>
     </row>
     <row r="46" spans="1:5" ht="22">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="19"/>
     </row>
     <row r="47" spans="1:5" ht="22">
-      <c r="B47" s="27"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="25"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="19"/>
     </row>
     <row r="48" spans="1:5" ht="22">
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="2:5" ht="22">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
     </row>
     <row r="50" spans="2:5" ht="22">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="19"/>
     </row>
     <row r="51" spans="2:5" ht="22">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="25"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="19"/>
     </row>
     <row r="52" spans="2:5" ht="22">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="2:5" ht="22">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="25"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="19"/>
     </row>
     <row r="54" spans="2:5" ht="22">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="25"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="19"/>
     </row>
     <row r="55" spans="2:5" ht="22">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="25"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="19"/>
     </row>
     <row r="56" spans="2:5" ht="22">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="25"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="19"/>
     </row>
     <row r="57" spans="2:5" ht="22">
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="19"/>
     </row>
     <row r="58" spans="2:5" ht="22">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="19"/>
     </row>
     <row r="59" spans="2:5" ht="22">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="19"/>
     </row>
     <row r="60" spans="2:5" ht="22">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="19"/>
     </row>
     <row r="61" spans="2:5" ht="22">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="25"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="19"/>
     </row>
     <row r="62" spans="2:5" ht="22">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="25"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="19"/>
     </row>
     <row r="63" spans="2:5">
-      <c r="B63" s="24"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="19"/>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="24"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
     </row>
     <row r="65" spans="2:5">
-      <c r="B65" s="24"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="25"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19"/>
     </row>
     <row r="66" spans="2:5">
-      <c r="B66" s="24"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="19"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="19"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="24"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="19"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="24"/>
-      <c r="C69" s="25"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="24"/>
-      <c r="C70" s="25"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="24"/>
-      <c r="C71" s="25"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="24"/>
-      <c r="C72" s="25"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="24"/>
-      <c r="C73" s="25"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="24"/>
-      <c r="C74" s="25"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="24"/>
-      <c r="C75" s="25"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="148">
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
     <mergeCell ref="D67:E67"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="B54:C54"/>
@@ -2155,119 +2257,17 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2641,11 +2641,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="A1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
